--- a/TestMNIST/MatlabCodes/final_4_5.xlsx
+++ b/TestMNIST/MatlabCodes/final_4_5.xlsx
@@ -37,24 +37,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC00000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -69,10 +57,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -415,145 +401,76 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection sqref="A1:J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>0.13783880618915717</v>
-      </c>
-      <c r="B1" s="1">
-        <v>5.8952380667453156E-3</v>
-      </c>
-      <c r="C1" s="2">
-        <v>6.0202855101753197E-3</v>
+        <v>0.17858912259077225</v>
+      </c>
+      <c r="B1">
+        <v>0.51457444057686397</v>
+      </c>
+      <c r="C1">
+        <v>0.247978153924485</v>
       </c>
       <c r="D1">
-        <v>4.8108296214568391E-3</v>
-      </c>
-      <c r="E1" s="2">
-        <v>8.9084105698714722E-2</v>
-      </c>
-      <c r="F1" s="1">
-        <v>1.3288051088334347E-2</v>
+        <v>0.23026805851692125</v>
+      </c>
+      <c r="E1">
+        <v>0.13614010263138665</v>
+      </c>
+      <c r="F1">
+        <v>0.23253819737249043</v>
       </c>
       <c r="G1">
-        <v>2.420991291141511E-3</v>
-      </c>
-      <c r="H1" s="2">
-        <v>8.2671456154220432E-3</v>
+        <v>0.5170522833905119</v>
+      </c>
+      <c r="H1">
+        <v>0.18545648599656767</v>
       </c>
       <c r="I1">
-        <v>7.397936641728238E-2</v>
-      </c>
-      <c r="J1" s="1">
-        <v>1.52857112361205E-2</v>
+        <v>0.13392236500018673</v>
+      </c>
+      <c r="J1">
+        <v>0.37384820840084776</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>0.11791521274519232</v>
-      </c>
-      <c r="B2" s="1">
-        <v>1.4076923637548517E-2</v>
-      </c>
-      <c r="C2" s="2">
-        <v>3.4654509824101953E-2</v>
+        <v>0.16680023343703132</v>
+      </c>
+      <c r="B2">
+        <v>0.48062476160369733</v>
+      </c>
+      <c r="C2">
+        <v>0.23162058257750476</v>
       </c>
       <c r="D2">
-        <v>1.7704352392094301E-2</v>
-      </c>
-      <c r="E2" s="2">
-        <v>0.12160046250251733</v>
-      </c>
-      <c r="F2" s="1">
-        <v>5.7232837228489972E-2</v>
+        <v>0.21508459401867147</v>
+      </c>
+      <c r="E2">
+        <v>0.1271408142447841</v>
+      </c>
+      <c r="F2">
+        <v>0.21721062381619247</v>
       </c>
       <c r="G2">
-        <v>6.4703406781856194E-3</v>
-      </c>
-      <c r="H2" s="2">
-        <v>3.358189970454778E-2</v>
+        <v>0.48294771660948804</v>
+      </c>
+      <c r="H2">
+        <v>0.17322797687754379</v>
       </c>
       <c r="I2">
-        <v>5.0450690470795111E-2</v>
-      </c>
-      <c r="J2" s="1">
-        <v>5.1274906483771534E-3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="H3" s="2"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>2</v>
-      </c>
-      <c r="C4" s="2">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4" s="2">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>2</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="H4" s="2">
-        <v>1</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>1</v>
-      </c>
-      <c r="B5">
-        <v>2</v>
-      </c>
-      <c r="C5" s="2">
-        <v>2</v>
-      </c>
-      <c r="D5">
-        <v>2</v>
-      </c>
-      <c r="E5" s="2">
-        <v>2</v>
-      </c>
-      <c r="F5">
-        <v>2</v>
-      </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-      <c r="H5" s="2">
-        <v>2</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-      <c r="J5" s="2">
-        <v>1</v>
+        <v>0.12507417871145746</v>
+      </c>
+      <c r="J2">
+        <v>0.34919903455132423</v>
       </c>
     </row>
   </sheetData>
